--- a/app/src/main/assets/recycle_latlong.xlsx
+++ b/app/src/main/assets/recycle_latlong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jang_\AndroidStudioProjects\PlogProject\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A98232C-5418-4CF9-840D-99032B19F2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C918FCF7-0594-4821-BE16-60229C9B6B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="38700" windowHeight="15285" xr2:uid="{4B573690-2244-4962-A2A6-1F3CF6996BDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4B573690-2244-4962-A2A6-1F3CF6996BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -423,16 +423,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF459688-1112-40DE-AF05-8BCF2E024B2A}">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>37.4562079706348</v>
       </c>
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>37.524730226924</v>
       </c>
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>37.750140000000002</v>
       </c>
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>37.7757911116827</v>
       </c>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>35.251288850117</v>
       </c>
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>35.234007131069198</v>
       </c>
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>36.114264275063597</v>
       </c>
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>36.308222651658802</v>
       </c>
@@ -531,7 +531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>35.175593560706098</v>
       </c>
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>35.541618374652103</v>
       </c>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>33.446916227636002</v>
       </c>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>33.259456594429899</v>
       </c>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>33.253617766923803</v>
       </c>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33.266268546656001</v>
       </c>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>33.2773123911822</v>
       </c>
@@ -608,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>33.322268067579103</v>
       </c>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>33.249967158557602</v>
       </c>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>33.250429716215898</v>
       </c>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>33.228437551768401</v>
       </c>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>34.972519663351903</v>
       </c>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>35.063029437735402</v>
       </c>
@@ -674,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>34.682244659629497</v>
       </c>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>35.2780784295364</v>
       </c>
@@ -696,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>34.962942220047601</v>
       </c>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35.929254617297197</v>
       </c>
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>37.494827644498699</v>
       </c>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>37.484379090971203</v>
       </c>
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>37.4793391334088</v>
       </c>
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>37.610855209907598</v>
       </c>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>37.600825468541501</v>
       </c>
@@ -773,7 +773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>37.463228804405603</v>
       </c>
@@ -784,7 +784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>37.626509360422901</v>
       </c>
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>37.484399229011899</v>
       </c>
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>37.561441752864702</v>
       </c>
@@ -817,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>37.605058764297297</v>
       </c>
@@ -828,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>37.613839383021201</v>
       </c>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37.518239696979101</v>
       </c>
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37.664211637443501</v>
       </c>
@@ -861,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>37.520313678499399</v>
       </c>
@@ -872,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>37.512700336214799</v>
       </c>
@@ -883,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>37.544613330715698</v>
       </c>
@@ -894,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>37.646701842015702</v>
       </c>
@@ -905,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>37.487319163148896</v>
       </c>
@@ -916,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>37.545118816413698</v>
       </c>
@@ -927,7 +927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>37.470622848311699</v>
       </c>
@@ -938,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>37.5547278494914</v>
       </c>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>37.535725176732001</v>
       </c>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>37.606862635258999</v>
       </c>
@@ -971,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>37.594472533343499</v>
       </c>
@@ -982,7 +982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>37.481207997090799</v>
       </c>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>37.556180581345799</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>37.553318208269197</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>37.3899292800076</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>37.344903632041003</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>36.987432268954898</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>37.310084734901999</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>37.204332510132502</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>37.603077623005397</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>37.254544044353501</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>37.569809551673799</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>37.380543227847198</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>37.479460622784899</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>37.149451245007199</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>37.6736581794828</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>37.826223412030899</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>37.444286272533603</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>37.394910290395501</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>37.632687081929703</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>37.484425423292898</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>37.350682556940697</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>37.608204473871503</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>37.3031149487989</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>37.346012870703497</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>37.261533224418599</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>37.241739946244799</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>37.900557830576098</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>37.6157338803296</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>37.430302763789101</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>37.6188618032525</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>37.539056899999999</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>37.633467199999998</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>37.642793599999997</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>37.247250399999999</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>37.075680699999999</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>37.710348699999997</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>37.727564600000001</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>37.737550599999999</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>37.319820300000003</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>37.247600599999998</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>37.426307000000001</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>36.988395199999999</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>37.168436499999999</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>37.309634500000001</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>37.603045100000003</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>37.4926678</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>37.504991400000002</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>37.489676099999997</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>37.447685900000003</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>37.404282500000001</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>37.543700299999998</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>37.497618199999998</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>37.507883</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>37.391075600000001</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>38.154085299999998</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>37.741568699999988</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>38.190925700000001</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>37.688303500000004</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>37.3233642</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>35.157317999999997</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>35.170355899999997</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>34.831267400000002</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>35.243412900000003</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>35.204027600000003</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>35.197847500000002</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>35.333157100000001</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>35.203437000000001</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>34.889507000000002</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>35.179631899999997</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>36.072578900000003</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>36.097432400000002</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>36.146939799999998</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>36.136015700000002</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>36.064199299999999</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>36.063958599999999</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>35.889485200000003</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>36.106364599999999</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>35.152370500000004</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>35.8536888</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>36.4268328</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>36.433997699999999</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>35.205768200000001</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>35.144320000000008</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>35.159849199999996</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>35.168897399999999</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>35.541528</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>35.601302599999997</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>35.574959700000001</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>36.599530600000001</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>36.284075000000001</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>36.826246699999999</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>36.686208800000003</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>36.833969400000001</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>36.455566300000001</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>37.152220100000001</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>36.911705499999997</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>36.6204161</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>37.140121899999997</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>36.780837699999999</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>36.641934499999998</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>36.6159623</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>36.628390400000008</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>37.140121899999997</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>36.605089900000003</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>33.250059100000001</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>33.253714100000003</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>34.952110699999999</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>34.936304900000003</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>34.942418400000001</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>35.816354099999998</v>
       </c>
